--- a/update.xlsx
+++ b/update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/Desktop/git_proj/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E91550-CDD1-DE49-B509-A9A713221F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F7012C-4BA5-C149-ABA8-92D2389F11B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="900" windowWidth="19080" windowHeight="22120" activeTab="1" xr2:uid="{EC14C5E7-9802-4A4C-A1BB-B13447387578}"/>
   </bookViews>

--- a/update.xlsx
+++ b/update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/Desktop/git_proj/EMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F7012C-4BA5-C149-ABA8-92D2389F11B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91BB9C3-5E7B-B34B-97EA-8D2FA03AE115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="900" windowWidth="19080" windowHeight="22120" activeTab="1" xr2:uid="{EC14C5E7-9802-4A4C-A1BB-B13447387578}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
